--- a/Datasheets/Amplifier.xlsx
+++ b/Datasheets/Amplifier.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Andermann research\Laser cutter designs\BuckDriver\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Andermann research\Laser cutter designs\BuckDriver\Datasheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -362,10 +362,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -373,7 +373,7 @@
     <col min="1" max="1" width="10.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -383,8 +383,14 @@
       <c r="C1">
         <v>350</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E1">
+        <v>1</v>
+      </c>
+      <c r="F1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -394,8 +400,14 @@
       <c r="C2">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <v>2.91</v>
+      </c>
+      <c r="F2">
+        <v>2.91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -407,8 +419,16 @@
         <f>C1*C2</f>
         <v>35</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <f>E1*E2</f>
+        <v>2.91</v>
+      </c>
+      <c r="F3">
+        <f>F1*F2</f>
+        <v>727.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -418,8 +438,14 @@
       <c r="C4">
         <v>94.1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E4">
+        <v>4.5</v>
+      </c>
+      <c r="F4">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -431,8 +457,16 @@
         <f>C4*C3</f>
         <v>3293.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E5">
+        <f>E4*E3</f>
+        <v>13.095000000000001</v>
+      </c>
+      <c r="F5">
+        <f>F4*F3</f>
+        <v>3273.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -444,8 +478,16 @@
         <f>C5/(3300/4096)</f>
         <v>4087.9321212121213</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E6">
+        <f>E5/(3300/4096)</f>
+        <v>16.253672727272729</v>
+      </c>
+      <c r="F6">
+        <f>F5/(3300/4096)</f>
+        <v>4063.4181818181819</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -456,6 +498,14 @@
       <c r="C7">
         <f>C1*C3/1000</f>
         <v>12.25</v>
+      </c>
+      <c r="E7">
+        <f>E1*E3/1000</f>
+        <v>2.9100000000000003E-3</v>
+      </c>
+      <c r="F7">
+        <f>F1*F3/1000</f>
+        <v>181.875</v>
       </c>
     </row>
   </sheetData>

--- a/Datasheets/Amplifier.xlsx
+++ b/Datasheets/Amplifier.xlsx
@@ -1,30 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Andermann research\Laser cutter designs\BuckDriver\Datasheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F831520C-30EE-40AA-A43C-542F0D164C7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>Current mA</t>
   </si>
@@ -46,11 +56,35 @@
   <si>
     <t>Power mW</t>
   </si>
+  <si>
+    <t>danger</t>
+  </si>
+  <si>
+    <t>v input</t>
+  </si>
+  <si>
+    <t>I draw</t>
+  </si>
+  <si>
+    <t>v sense</t>
+  </si>
+  <si>
+    <t>24.8 ohm</t>
+  </si>
+  <si>
+    <t>250 mA</t>
+  </si>
+  <si>
+    <t>v sense mV</t>
+  </si>
+  <si>
+    <t>idraw A</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -97,6 +131,1365 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>v sense mV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$2:$N$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$O$2:$O$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>303</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>448</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>481</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>505</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>522</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>535</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>547</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>558</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>567</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>575</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>582</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>589</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>596</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>601</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>607</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>613</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>618</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>623</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>628</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>633</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>639</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>645</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>653</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FFC9-4F6B-9B1A-EE4411A2D694}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="143390624"/>
+        <c:axId val="420087952"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>idraw A</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$2:$N$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$P$2:$P$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FFC9-4F6B-9B1A-EE4411A2D694}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="638945760"/>
+        <c:axId val="638949360"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="143390624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="420087952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="420087952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="143390624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="638949360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="638945760"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="638945760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="638949360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{794CEFAD-84B5-78E8-E0D2-C0D34B76C3C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -361,19 +1754,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -389,8 +1782,26 @@
       <c r="F1">
         <v>250</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -406,8 +1817,26 @@
       <c r="F2">
         <v>2.91</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I2">
+        <v>0.5</v>
+      </c>
+      <c r="J2">
+        <v>0.01</v>
+      </c>
+      <c r="K2">
+        <v>0.4</v>
+      </c>
+      <c r="N2">
+        <v>0.4</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -427,8 +1856,26 @@
         <f>F1*F2</f>
         <v>727.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I3">
+        <v>0.6</v>
+      </c>
+      <c r="J3">
+        <v>0.01</v>
+      </c>
+      <c r="K3">
+        <v>8.1</v>
+      </c>
+      <c r="N3">
+        <v>0.5</v>
+      </c>
+      <c r="O3">
+        <v>0.3</v>
+      </c>
+      <c r="P3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -444,8 +1891,26 @@
       <c r="F4">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I4">
+        <v>0.7</v>
+      </c>
+      <c r="J4">
+        <v>0.02</v>
+      </c>
+      <c r="K4">
+        <v>42.5</v>
+      </c>
+      <c r="N4">
+        <v>0.6</v>
+      </c>
+      <c r="O4">
+        <v>7.6</v>
+      </c>
+      <c r="P4">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -465,8 +1930,26 @@
         <f>F4*F3</f>
         <v>3273.75</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I5">
+        <v>0.8</v>
+      </c>
+      <c r="J5">
+        <v>0.04</v>
+      </c>
+      <c r="K5">
+        <v>111</v>
+      </c>
+      <c r="N5">
+        <v>0.7</v>
+      </c>
+      <c r="O5">
+        <v>44</v>
+      </c>
+      <c r="P5">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -486,8 +1969,26 @@
         <f>F5/(3300/4096)</f>
         <v>4063.4181818181819</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I6">
+        <v>0.9</v>
+      </c>
+      <c r="J6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K6">
+        <v>209</v>
+      </c>
+      <c r="N6">
+        <v>0.8</v>
+      </c>
+      <c r="O6">
+        <v>111</v>
+      </c>
+      <c r="P6">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -507,8 +2008,400 @@
         <f>F1*F3/1000</f>
         <v>181.875</v>
       </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>0.1</v>
+      </c>
+      <c r="K7">
+        <v>312</v>
+      </c>
+      <c r="N7">
+        <v>0.9</v>
+      </c>
+      <c r="O7">
+        <v>200</v>
+      </c>
+      <c r="P7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J8">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K8">
+        <v>377</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>303</v>
+      </c>
+      <c r="P8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I9">
+        <v>1.2</v>
+      </c>
+      <c r="J9">
+        <v>0.16</v>
+      </c>
+      <c r="K9">
+        <v>414</v>
+      </c>
+      <c r="N9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O9">
+        <v>392</v>
+      </c>
+      <c r="P9">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I10">
+        <v>1.3</v>
+      </c>
+      <c r="J10">
+        <v>0.17</v>
+      </c>
+      <c r="K10">
+        <v>437</v>
+      </c>
+      <c r="N10">
+        <v>1.2</v>
+      </c>
+      <c r="O10">
+        <v>448</v>
+      </c>
+      <c r="P10">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I11">
+        <v>1.4</v>
+      </c>
+      <c r="J11">
+        <v>0.17</v>
+      </c>
+      <c r="K11">
+        <v>455</v>
+      </c>
+      <c r="N11">
+        <v>1.3</v>
+      </c>
+      <c r="O11">
+        <v>481</v>
+      </c>
+      <c r="P11">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I12">
+        <v>1.5</v>
+      </c>
+      <c r="J12">
+        <v>0.18</v>
+      </c>
+      <c r="K12">
+        <v>468</v>
+      </c>
+      <c r="N12">
+        <v>1.4</v>
+      </c>
+      <c r="O12">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I13">
+        <v>1.6</v>
+      </c>
+      <c r="J13">
+        <v>0.18</v>
+      </c>
+      <c r="K13">
+        <v>479</v>
+      </c>
+      <c r="N13">
+        <v>1.5</v>
+      </c>
+      <c r="O13">
+        <v>522</v>
+      </c>
+      <c r="P13">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I14">
+        <v>1.7</v>
+      </c>
+      <c r="J14">
+        <v>0.19</v>
+      </c>
+      <c r="K14">
+        <v>489</v>
+      </c>
+      <c r="N14">
+        <v>1.6</v>
+      </c>
+      <c r="O14">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I15">
+        <v>1.8</v>
+      </c>
+      <c r="J15">
+        <v>0.19</v>
+      </c>
+      <c r="K15">
+        <v>498</v>
+      </c>
+      <c r="N15">
+        <v>1.7</v>
+      </c>
+      <c r="O15">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I16">
+        <v>1.9</v>
+      </c>
+      <c r="N16">
+        <v>1.8</v>
+      </c>
+      <c r="O16">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="17" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="N17">
+        <v>1.9</v>
+      </c>
+      <c r="O17">
+        <v>567</v>
+      </c>
+      <c r="P17">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="18" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I18">
+        <v>2.1</v>
+      </c>
+      <c r="J18">
+        <v>0.2</v>
+      </c>
+      <c r="K18">
+        <v>521</v>
+      </c>
+      <c r="N18">
+        <v>2</v>
+      </c>
+      <c r="O18">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="19" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I19">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="N19">
+        <v>2.1</v>
+      </c>
+      <c r="O19">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="20" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I20">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="N20">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="O20">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="21" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I21">
+        <v>2.4</v>
+      </c>
+      <c r="N21">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="O21">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="22" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I22">
+        <v>2.5</v>
+      </c>
+      <c r="J22">
+        <v>0.2</v>
+      </c>
+      <c r="K22">
+        <v>556</v>
+      </c>
+      <c r="N22">
+        <v>2.4</v>
+      </c>
+      <c r="O22">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="23" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I23">
+        <v>2.6</v>
+      </c>
+      <c r="J23" t="s">
+        <v>7</v>
+      </c>
+      <c r="K23" t="s">
+        <v>7</v>
+      </c>
+      <c r="N23">
+        <v>2.5</v>
+      </c>
+      <c r="O23">
+        <v>607</v>
+      </c>
+      <c r="P23">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="24" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I24">
+        <v>2.7</v>
+      </c>
+      <c r="J24">
+        <v>0.22</v>
+      </c>
+      <c r="N24">
+        <v>2.6</v>
+      </c>
+      <c r="O24">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="25" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I25">
+        <v>2.8</v>
+      </c>
+      <c r="J25">
+        <v>0.23</v>
+      </c>
+      <c r="N25">
+        <v>2.7</v>
+      </c>
+      <c r="O25">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="26" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I26">
+        <v>2.9</v>
+      </c>
+      <c r="N26">
+        <v>2.8</v>
+      </c>
+      <c r="O26">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="27" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I27">
+        <v>3</v>
+      </c>
+      <c r="N27">
+        <v>2.9</v>
+      </c>
+      <c r="O27">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="28" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I28">
+        <v>3.1</v>
+      </c>
+      <c r="N28">
+        <v>3</v>
+      </c>
+      <c r="O28">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="29" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I29">
+        <v>3.2</v>
+      </c>
+      <c r="N29">
+        <v>3.1</v>
+      </c>
+      <c r="O29">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="30" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I30">
+        <v>3.3</v>
+      </c>
+      <c r="N30">
+        <v>3.2</v>
+      </c>
+      <c r="O30">
+        <v>645</v>
+      </c>
+      <c r="P30">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="31" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="N31">
+        <v>3.3</v>
+      </c>
+      <c r="O31">
+        <v>653</v>
+      </c>
+      <c r="P31">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="33" spans="14:16" x14ac:dyDescent="0.25">
+      <c r="N33" t="s">
+        <v>11</v>
+      </c>
+      <c r="O33" t="s">
+        <v>12</v>
+      </c>
+      <c r="P33">
+        <f>O31/1000/P31</f>
+        <v>3.6277777777777782</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>